--- a/Team-Data/2008-09/4-8-2008-09.xlsx
+++ b/Team-Data/2008-09/4-8-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
         <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.57</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,28 +751,28 @@
         <v>36.1</v>
       </c>
       <c r="J2" t="n">
-        <v>78.8</v>
+        <v>79</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
         <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>0.365</v>
       </c>
       <c r="O2" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P2" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R2" t="n">
         <v>10.7</v>
@@ -714,7 +781,7 @@
         <v>29.4</v>
       </c>
       <c r="T2" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U2" t="n">
         <v>20.3</v>
@@ -723,25 +790,25 @@
         <v>12.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
         <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -777,22 +844,22 @@
         <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS2" t="n">
         <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
         <v>21</v>
@@ -804,13 +871,13 @@
         <v>14</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -863,13 +930,13 @@
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -878,16 +945,16 @@
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
@@ -899,34 +966,34 @@
         <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W3" t="n">
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -944,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -962,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -998,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1150,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
         <v>23</v>
@@ -1165,7 +1232,7 @@
         <v>27</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1180,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="BB4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.481</v>
+        <v>0.487</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,10 +1297,10 @@
         <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1245,28 +1312,28 @@
         <v>0.383</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.795</v>
+        <v>0.794</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
         <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1281,25 +1348,25 @@
         <v>20.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
         <v>1</v>
@@ -1311,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>23</v>
@@ -1323,10 +1390,10 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1341,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
@@ -1362,10 +1429,10 @@
         <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -1397,58 +1464,58 @@
         <v>77</v>
       </c>
       <c r="E6" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="K6" t="n">
         <v>0.467</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
         <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T6" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,22 +1524,22 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1505,34 +1572,34 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV6" t="n">
         <v>4</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -1576,64 +1643,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="n">
         <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J7" t="n">
         <v>82.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M7" t="n">
         <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P7" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S7" t="n">
         <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U7" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
         <v>12.9</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
         <v>5.3</v>
@@ -1642,28 +1709,28 @@
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.1</v>
+        <v>101.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>14</v>
@@ -1687,7 +1754,7 @@
         <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>28</v>
@@ -1696,10 +1763,10 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1708,28 +1775,28 @@
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -1758,31 +1825,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J8" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
         <v>17.9</v>
@@ -1791,13 +1858,13 @@
         <v>0.372</v>
       </c>
       <c r="O8" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
         <v>11</v>
@@ -1806,19 +1873,19 @@
         <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U8" t="n">
         <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W8" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y8" t="n">
         <v>5.5</v>
@@ -1830,10 +1897,10 @@
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.5</v>
+        <v>104.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1854,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1869,13 +1936,13 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
@@ -1911,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
         <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0.487</v>
+        <v>0.481</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L9" t="n">
         <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R9" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T9" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U9" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V9" t="n">
         <v>12</v>
@@ -2012,25 +2079,25 @@
         <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>94.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2039,19 +2106,19 @@
         <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
         <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2063,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="AS9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT9" t="n">
         <v>17</v>
@@ -2078,10 +2145,10 @@
         <v>29</v>
       </c>
       <c r="AX9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ9" t="n">
         <v>19</v>
@@ -2090,10 +2157,10 @@
         <v>28</v>
       </c>
       <c r="BB9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BC9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2189,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" t="n">
         <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>0.359</v>
+        <v>0.364</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J10" t="n">
         <v>86.2</v>
@@ -2146,7 +2213,7 @@
         <v>0.459</v>
       </c>
       <c r="L10" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M10" t="n">
         <v>18.1</v>
@@ -2155,10 +2222,10 @@
         <v>0.373</v>
       </c>
       <c r="O10" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="P10" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="Q10" t="n">
         <v>0.791</v>
@@ -2173,7 +2240,7 @@
         <v>42.1</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V10" t="n">
         <v>14.8</v>
@@ -2182,7 +2249,7 @@
         <v>7.9</v>
       </c>
       <c r="X10" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y10" t="n">
         <v>5.1</v>
@@ -2191,16 +2258,16 @@
         <v>22.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2233,7 +2300,7 @@
         <v>12</v>
       </c>
       <c r="AO10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
@@ -2251,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2394,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>25</v>
@@ -2406,13 +2473,13 @@
         <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>15</v>
@@ -2436,10 +2503,10 @@
         <v>20</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>23</v>
@@ -2457,7 +2524,7 @@
         <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
         <v>44</v>
       </c>
       <c r="G12" t="n">
-        <v>0.436</v>
+        <v>0.429</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J12" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L12" t="n">
         <v>7.9</v>
@@ -2516,31 +2583,31 @@
         <v>21</v>
       </c>
       <c r="N12" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O12" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P12" t="n">
         <v>22.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.806</v>
+        <v>0.805</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V12" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W12" t="n">
         <v>6.9</v>
@@ -2549,22 +2616,22 @@
         <v>5.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA12" t="n">
         <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.7</v>
+        <v>104.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -2576,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2585,22 +2652,22 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM12" t="n">
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>22</v>
       </c>
       <c r="AP12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
@@ -2609,25 +2676,25 @@
         <v>12</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>18</v>
       </c>
       <c r="AW12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2776,13 +2843,13 @@
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
         <v>28</v>
@@ -2800,10 +2867,10 @@
         <v>13</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.792</v>
+        <v>0.795</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
@@ -2877,25 +2944,25 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O14" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P14" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R14" t="n">
         <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
         <v>44</v>
@@ -2922,16 +2989,16 @@
         <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2955,7 +3022,7 @@
         <v>16</v>
       </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
         <v>20</v>
@@ -2964,16 +3031,16 @@
         <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>15</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" t="n">
-        <v>0.282</v>
+        <v>0.286</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3050,7 +3117,7 @@
         <v>34.9</v>
       </c>
       <c r="J15" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.453</v>
@@ -3062,7 +3129,7 @@
         <v>13.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O15" t="n">
         <v>19.2</v>
@@ -3083,13 +3150,13 @@
         <v>38.7</v>
       </c>
       <c r="U15" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="V15" t="n">
         <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>4.5</v>
@@ -3104,19 +3171,19 @@
         <v>21.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
         <v>26</v>
@@ -3128,28 +3195,28 @@
         <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>23</v>
@@ -3173,16 +3240,16 @@
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3304,7 +3371,7 @@
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>13</v>
@@ -3313,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3331,7 +3398,7 @@
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3358,7 +3425,7 @@
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -3420,37 +3487,37 @@
         <v>0.444</v>
       </c>
       <c r="L17" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
         <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
         <v>40.7</v>
       </c>
       <c r="U17" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
         <v>7.4</v>
@@ -3468,25 +3535,25 @@
         <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
@@ -3504,19 +3571,19 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
         <v>26</v>
@@ -3525,13 +3592,13 @@
         <v>20</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3549,7 +3616,7 @@
         <v>15</v>
       </c>
       <c r="BC17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -3578,22 +3645,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
         <v>55</v>
       </c>
       <c r="G18" t="n">
-        <v>0.304</v>
+        <v>0.295</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J18" t="n">
         <v>82.5</v>
@@ -3605,16 +3672,16 @@
         <v>6.6</v>
       </c>
       <c r="M18" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N18" t="n">
         <v>0.352</v>
       </c>
       <c r="O18" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P18" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="Q18" t="n">
         <v>0.77</v>
@@ -3632,7 +3699,7 @@
         <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W18" t="n">
         <v>6.2</v>
@@ -3641,7 +3708,7 @@
         <v>4</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="n">
         <v>21.7</v>
@@ -3653,7 +3720,7 @@
         <v>97.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.8</v>
+        <v>-5</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -3668,7 +3735,7 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
@@ -3683,13 +3750,13 @@
         <v>19</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN18" t="n">
         <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
@@ -3698,13 +3765,13 @@
         <v>14</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU18" t="n">
         <v>17</v>
@@ -3722,7 +3789,7 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" t="n">
         <v>32</v>
       </c>
       <c r="F19" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>0.41</v>
+        <v>0.416</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3778,7 +3845,7 @@
         <v>35.8</v>
       </c>
       <c r="J19" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.448</v>
@@ -3787,22 +3854,22 @@
         <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O19" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q19" t="n">
         <v>0.778</v>
       </c>
       <c r="R19" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S19" t="n">
         <v>29.5</v>
@@ -3811,13 +3878,13 @@
         <v>39.9</v>
       </c>
       <c r="U19" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V19" t="n">
         <v>13.1</v>
       </c>
       <c r="W19" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
@@ -3826,19 +3893,19 @@
         <v>4.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
@@ -3850,19 +3917,19 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM19" t="n">
         <v>3</v>
@@ -3886,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
@@ -3907,7 +3974,7 @@
         <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="n">
         <v>48</v>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>0.615</v>
+        <v>0.623</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
@@ -3960,7 +4027,7 @@
         <v>35.5</v>
       </c>
       <c r="J20" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.458</v>
@@ -3972,16 +4039,16 @@
         <v>18.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O20" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P20" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>9.9</v>
@@ -3993,7 +4060,7 @@
         <v>39.9</v>
       </c>
       <c r="U20" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V20" t="n">
         <v>12.7</v>
@@ -4008,19 +4075,19 @@
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB20" t="n">
         <v>96.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
@@ -4053,10 +4120,10 @@
         <v>16</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4071,7 +4138,7 @@
         <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
@@ -4080,13 +4147,13 @@
         <v>13</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" t="n">
-        <v>0.38</v>
+        <v>0.385</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J21" t="n">
         <v>86.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L21" t="n">
         <v>10.1</v>
@@ -4154,7 +4221,7 @@
         <v>28</v>
       </c>
       <c r="N21" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O21" t="n">
         <v>18.2</v>
@@ -4166,19 +4233,19 @@
         <v>0.784</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T21" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W21" t="n">
         <v>7.4</v>
@@ -4190,16 +4257,16 @@
         <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.3</v>
+        <v>105.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -4214,7 +4281,7 @@
         <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4223,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
         <v>22</v>
@@ -4244,13 +4311,13 @@
         <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS21" t="n">
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU21" t="n">
         <v>12</v>
@@ -4259,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" t="n">
         <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" t="n">
-        <v>0.269</v>
+        <v>0.273</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J22" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K22" t="n">
         <v>0.446</v>
@@ -4333,28 +4400,28 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P22" t="n">
         <v>25.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R22" t="n">
         <v>12.2</v>
       </c>
       <c r="S22" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T22" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
@@ -4369,22 +4436,22 @@
         <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA22" t="n">
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4399,13 +4466,13 @@
         <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4417,7 +4484,7 @@
         <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
         <v>10</v>
@@ -4435,13 +4502,13 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,13 +4517,13 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -4488,43 +4555,43 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" t="n">
         <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>0.744</v>
+        <v>0.74</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J23" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K23" t="n">
         <v>0.459</v>
       </c>
       <c r="L23" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.384</v>
+        <v>0.386</v>
       </c>
       <c r="O23" t="n">
         <v>19.8</v>
       </c>
       <c r="P23" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="Q23" t="n">
         <v>0.718</v>
@@ -4533,10 +4600,10 @@
         <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U23" t="n">
         <v>19.5</v>
@@ -4557,19 +4624,19 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4623,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX23" t="n">
         <v>6</v>
@@ -4632,13 +4699,13 @@
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>6</v>
       </c>
       <c r="BB23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4766,7 +4833,7 @@
         <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK24" t="n">
         <v>13</v>
@@ -4775,13 +4842,13 @@
         <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4802,7 +4869,7 @@
         <v>22</v>
       </c>
       <c r="AV24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
@@ -4814,7 +4881,7 @@
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" t="n">
         <v>35</v>
       </c>
       <c r="G25" t="n">
-        <v>0.551</v>
+        <v>0.545</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,7 +4937,7 @@
         <v>41.2</v>
       </c>
       <c r="J25" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.505</v>
@@ -4879,16 +4946,16 @@
         <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O25" t="n">
         <v>20.3</v>
       </c>
       <c r="P25" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="Q25" t="n">
         <v>0.747</v>
@@ -4918,10 +4985,10 @@
         <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB25" t="n">
         <v>109.5</v>
@@ -4930,7 +4997,7 @@
         <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4972,19 +5039,19 @@
         <v>25</v>
       </c>
       <c r="AR25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS25" t="n">
         <v>10</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU25" t="n">
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW25" t="n">
         <v>18</v>
@@ -4996,7 +5063,7 @@
         <v>10</v>
       </c>
       <c r="AZ25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA25" t="n">
         <v>4</v>
@@ -5005,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -5037,43 +5104,43 @@
         <v>77</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.649</v>
+        <v>0.636</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
         <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
@@ -5097,31 +5164,31 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
@@ -5130,7 +5197,7 @@
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
@@ -5151,7 +5218,7 @@
         <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5169,7 +5236,7 @@
         <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>13</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
       </c>
       <c r="AF27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG27" t="n">
         <v>30</v>
@@ -5345,7 +5412,7 @@
         <v>29</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" t="n">
         <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" t="n">
-        <v>0.641</v>
+        <v>0.649</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,7 +5483,7 @@
         <v>37.1</v>
       </c>
       <c r="J28" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.466</v>
@@ -5425,34 +5492,34 @@
         <v>7.6</v>
       </c>
       <c r="M28" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="O28" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="P28" t="n">
         <v>19.7</v>
       </c>
-      <c r="N28" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="O28" t="n">
-        <v>15</v>
-      </c>
-      <c r="P28" t="n">
-        <v>19.6</v>
-      </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T28" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V28" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="W28" t="n">
         <v>5.8</v>
@@ -5470,25 +5537,25 @@
         <v>18.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
       </c>
       <c r="F29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,10 +5665,10 @@
         <v>37.1</v>
       </c>
       <c r="J29" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L29" t="n">
         <v>5.9</v>
@@ -5610,10 +5677,10 @@
         <v>15.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O29" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P29" t="n">
         <v>22.7</v>
@@ -5625,22 +5692,22 @@
         <v>9.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
         <v>40.2</v>
       </c>
       <c r="U29" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V29" t="n">
         <v>13.4</v>
       </c>
       <c r="W29" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
         <v>4.5</v>
@@ -5655,10 +5722,10 @@
         <v>98.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.2</v>
+        <v>-2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5676,10 +5743,10 @@
         <v>12</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>24</v>
@@ -5694,7 +5761,7 @@
         <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,7 +5773,7 @@
         <v>11</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5718,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" t="n">
         <v>47</v>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>0.603</v>
+        <v>0.61</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J30" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.476</v>
@@ -5789,34 +5856,34 @@
         <v>4.8</v>
       </c>
       <c r="M30" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O30" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="P30" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R30" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S30" t="n">
         <v>29.6</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U30" t="n">
         <v>24.7</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
@@ -5831,16 +5898,16 @@
         <v>22.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
@@ -5852,19 +5919,19 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>3</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5879,13 +5946,13 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>11</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT30" t="n">
         <v>18</v>
@@ -5894,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" t="n">
         <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
-        <v>0.228</v>
+        <v>0.231</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J31" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L31" t="n">
         <v>4.8</v>
       </c>
       <c r="M31" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O31" t="n">
         <v>18.2</v>
@@ -5983,25 +6050,25 @@
         <v>23.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R31" t="n">
         <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="T31" t="n">
         <v>40</v>
       </c>
       <c r="U31" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V31" t="n">
         <v>13.8</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X31" t="n">
         <v>4.2</v>
@@ -6013,13 +6080,13 @@
         <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.7</v>
+        <v>-7.6</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -6028,16 +6095,16 @@
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>13</v>
@@ -6055,7 +6122,7 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
@@ -6073,7 +6140,7 @@
         <v>23</v>
       </c>
       <c r="AU31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6082,7 +6149,7 @@
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-8-2008-09</t>
+          <t>2009-04-08</t>
         </is>
       </c>
     </row>
